--- a/tests/data_up_to_S2022T04/Torneo S2022T03 para publicar.xlsx
+++ b/tests/data_up_to_S2022T04/Torneo S2022T03 para publicar.xlsx
@@ -15611,35 +15611,35 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D7" s="4">
-        <v>250.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D8" s="4">
-        <v>250.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -15653,7 +15653,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -15667,44 +15667,44 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D11" s="4">
-        <v>150.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4">
-        <v>500.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D13" s="4">
-        <v>500.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="14">
@@ -15715,58 +15715,58 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>158</v>
+        <v>354</v>
       </c>
       <c r="D15" s="4">
-        <v>250.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>158</v>
+        <v>355</v>
       </c>
       <c r="D16" s="4">
-        <v>250.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D17" s="4">
-        <v>125.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D18" s="4">
-        <v>125.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="19">
@@ -15785,7 +15785,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -15799,35 +15799,35 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="D21" s="4">
-        <v>500.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D22" s="4">
-        <v>75.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>35</v>
@@ -15855,7 +15855,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>35</v>
@@ -15869,16 +15869,16 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="D26" s="4">
-        <v>375.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -15889,119 +15889,119 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="D28" s="4">
-        <v>65.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="D29" s="4">
-        <v>65.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D30" s="4">
-        <v>65.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D31" s="4">
-        <v>65.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D32" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D33" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D34" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>55</v>
@@ -16015,7 +16015,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>55</v>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>55</v>
@@ -16043,7 +16043,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>55</v>
@@ -16057,63 +16057,63 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D40" s="4">
-        <v>125.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D41" s="4">
-        <v>125.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="D42" s="4">
-        <v>190.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="D43" s="4">
-        <v>250.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>55</v>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>55</v>

--- a/tests/data_up_to_S2022T04/Torneo S2022T03 para publicar.xlsx
+++ b/tests/data_up_to_S2022T04/Torneo S2022T03 para publicar.xlsx
@@ -922,22 +922,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>951 (=)</t>
+          <t>951 (-48)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Palamedi, Cristian</t>
+          <t>Levin, Raul</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Atemeli</t>
+          <t>Parana</t>
         </is>
       </c>
     </row>
@@ -949,17 +944,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>951 (-48)</t>
+          <t>951 (=)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Levin, Raul</t>
+          <t>Palamedi, Cristian</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Atemeli</t>
         </is>
       </c>
     </row>
@@ -1265,17 +1265,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>704 (+28)</t>
+          <t>704 (-40)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Savino, Leandro</t>
+          <t>Colavini, Daniel</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Santo Tome</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1292,17 +1292,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>704 (-40)</t>
+          <t>704 (+28)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Colavini, Daniel</t>
+          <t>Savino, Leandro</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Santo Tome</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2490,12 +2490,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Velazquez, Marcelo (1491)</t>
+          <t>Heredia, Santiago (1573)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Heredia, Santiago (1573)</t>
+          <t>Velazquez, Marcelo (1491)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2574,22 +2574,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Palamedi, Cristian (951)</t>
+          <t>Lofeudo, Juan Jose (1567)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>462</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lofeudo, Juan Jose (1567)</t>
+          <t>Palamedi, Cristian (951)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -3330,22 +3330,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Garcia, Francisco (958)</t>
+          <t>Boetti, Genaro (523)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3372,22 +3372,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Boetti, Genaro (523)</t>
+          <t>Garcia, Francisco (958)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3540,22 +3540,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Vigouroux, Jorge (1040)</t>
+          <t>Escudero, Martin (850)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-240</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3582,22 +3582,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Escudero, Martin (850)</t>
+          <t>Vigouroux, Jorge (1040)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-240</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -4338,22 +4338,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Reniero, Gian (700)</t>
+          <t>Escalante, Samuel (516)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4380,22 +4380,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Escalante, Samuel (516)</t>
+          <t>Reniero, Gian (700)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4464,22 +4464,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Vetrano, Luca (800)</t>
+          <t>Palamedi, Uma (386)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>543</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4506,22 +4506,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Palamedi, Uma (386)</t>
+          <t>Vetrano, Luca (800)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Vigouroux, Manuel (527)</t>
+          <t>Boetti, Genaro (523)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4926,12 +4926,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Boetti, Genaro (523)</t>
+          <t>Vigouroux, Manuel (527)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nohara, Andres</t>
+          <t>Mendez, Carlos</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mendez, Carlos</t>
+          <t>Nohara, Andres</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Velazquez, Marcelo</t>
+          <t>Heredia, Santiago</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Heredia, Santiago</t>
+          <t>Velazquez, Marcelo</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Palamedi, Cristian</t>
+          <t>Lofeudo, Juan Jose</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lofeudo, Juan Jose</t>
+          <t>Palamedi, Cristian</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vigouroux, Manuel</t>
+          <t>Colavini, Daniel</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Colavini, Daniel</t>
+          <t>Vigouroux, Manuel</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -6110,14 +6110,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Reniero, Gian</t>
+          <t>Bonelli, Marcos</t>
         </is>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
         <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -6138,14 +6138,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bonelli, Marcos</t>
+          <t>Reniero, Gian</t>
         </is>
       </c>
       <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Vetrano, Luca</t>
+          <t>Escudero, Martin</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Escudero, Martin</t>
+          <t>Vetrano, Luca</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Reniero, Gian</t>
+          <t>Escalante, Samuel</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Escalante, Samuel</t>
+          <t>Reniero, Gian</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Vetrano, Luca</t>
+          <t>Palamedi, Uma</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Palamedi, Uma</t>
+          <t>Vetrano, Luca</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -6950,14 +6950,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Prettis, Juan</t>
+          <t>Larrosa, Jorge</t>
         </is>
       </c>
       <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -6978,14 +6978,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Larrosa, Jorge</t>
+          <t>Prettis, Juan</t>
         </is>
       </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
         <v>3</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Vigouroux, Manuel</t>
+          <t>Boetti, Genaro</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Boetti, Genaro</t>
+          <t>Vigouroux, Manuel</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -12533,12 +12533,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nowotny, Martin</t>
+          <t>Dupertuis, Gaston</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -12548,17 +12553,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dupertuis, Gaston</t>
+          <t>Nowotny, Martin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
     </row>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>La Barba, Pablo</t>
+          <t>Aguirre, German</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aguirre, German</t>
+          <t>La Barba, Pablo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -13248,7 +13248,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sueldo, Pablo</t>
+          <t>Sartor, Yemel</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Avellaneda</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ATMAR</t>
         </is>
       </c>
     </row>
@@ -13258,17 +13268,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sartor, Yemel</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Avellaneda</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>ATMAR</t>
+          <t>Sueldo, Pablo</t>
         </is>
       </c>
     </row>
@@ -13483,17 +13483,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Maerker, Shion</t>
+          <t>Becker, Fernando</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -13503,17 +13503,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Becker, Fernando</t>
+          <t>Maerker, Shion</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -13558,17 +13558,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chiara, Lucio</t>
+          <t>Campos, Dario</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>Atemeli</t>
         </is>
       </c>
     </row>
@@ -13578,17 +13578,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Campos, Dario</t>
+          <t>Chiara, Lucio</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Atemeli</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lerch, Juan Carlos</t>
+          <t>Gimenez, Maximo</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tiro Federal</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gimenez, Maximo</t>
+          <t>Lerch, Juan Carlos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>Tiro Federal</t>
         </is>
       </c>
     </row>
@@ -13978,12 +13978,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mendieta, Elias</t>
+          <t>Arrieta, Maximiliano</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Libertador San Martin</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -13993,17 +13998,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Badano, Pablo</t>
+          <t>Asenie, Santiago</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
     </row>
@@ -14013,12 +14013,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Asenie, Santiago</t>
+          <t>Badano, Pablo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -14048,17 +14053,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Presel, Raul</t>
+          <t>Mendieta, Elias</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Santa Fe</t>
         </is>
       </c>
     </row>
@@ -14068,17 +14068,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Arrieta, Maximiliano</t>
+          <t>Presel, Raul</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Martinez, Dylan</t>
+          <t>Aguirre, Gabriel</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -15083,17 +15093,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Aguirre, Gabriel</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Martinez, Dylan</t>
         </is>
       </c>
     </row>
@@ -15173,17 +15173,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Werner, Graciela</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Rodriguez Alarcon Emiliano</t>
         </is>
       </c>
     </row>
@@ -15193,7 +15183,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Rodriguez Alarcon Emiliano</t>
+          <t>Werner, Graciela</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -15203,7 +15203,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Mir, Tomas</t>
+          <t>Javita, Luis</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Libertador San Martin</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -15223,17 +15233,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Javita, Luis</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Libertador San Martin</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>CRL</t>
+          <t>Mir, Tomas</t>
         </is>
       </c>
     </row>
@@ -15358,7 +15358,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Michea, Ignacio</t>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Libertador San Martin</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -15368,17 +15378,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Libertador San Martin</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>CRL</t>
+          <t>Michea, Ignacio</t>
         </is>
       </c>
     </row>
@@ -15423,17 +15423,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Portillo, Lucas</t>
+          <t>Arrieta, Matias</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Esperanza</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ATME</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -15458,17 +15458,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Arrieta, Matias</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Libertador San Martin</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>CRL</t>
+          <t>Muller, Tomas</t>
         </is>
       </c>
     </row>
@@ -15478,7 +15468,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Muller, Tomas</t>
+          <t>Portillo, Lucas</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Esperanza</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>ATME</t>
         </is>
       </c>
     </row>
@@ -15538,17 +15538,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pillac, Juan Pablo</t>
+          <t>Comas, Javier</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -15558,17 +15558,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Comas, Javier</t>
+          <t>Pillac, Juan Pablo</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -15698,17 +15698,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Vergara, Gustavo</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Tiro Federal</t>
+          <t>Godano, Lucas</t>
         </is>
       </c>
     </row>
@@ -15718,7 +15708,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Godano, Lucas</t>
+          <t>Vergara, Gustavo</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Tiro Federal</t>
         </is>
       </c>
     </row>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Musuruana, Francisco</t>
+          <t>Escalante, Samuel</t>
         </is>
       </c>
     </row>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Escalante, Samuel</t>
+          <t>Musuruana, Francisco</t>
         </is>
       </c>
     </row>
@@ -16128,7 +16128,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ferrero, Alejandro</t>
+          <t>Antunez, Pablo</t>
         </is>
       </c>
     </row>
@@ -16138,7 +16138,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Antunez, Pablo</t>
+          <t>Ferrero, Alejandro</t>
         </is>
       </c>
     </row>
@@ -16158,7 +16158,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Velazquez, Pedro</t>
+          <t>Lell, Claudia</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Tiro Federal</t>
         </is>
       </c>
     </row>
@@ -16168,17 +16178,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Lell, Claudia</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Tiro Federal</t>
+          <t>Velazquez, Pedro</t>
         </is>
       </c>
     </row>
@@ -16268,7 +16268,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Bertoli, Maximiliano</t>
+          <t>Bertoli, Julian</t>
         </is>
       </c>
     </row>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Bertoli, Julian</t>
+          <t>Bertoli, Maximiliano</t>
         </is>
       </c>
     </row>
@@ -16288,17 +16288,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Seib, Silvia</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Macor, Mateo</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16298,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Macor, Mateo</t>
+          <t>Seib, Silvia</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>

--- a/tests/data_up_to_S2022T04/Torneo S2022T03 para publicar.xlsx
+++ b/tests/data_up_to_S2022T04/Torneo S2022T03 para publicar.xlsx
@@ -1634,8 +1634,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5089,8 +5089,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7281,8 +7281,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>750 (T02) + 500 (T01) + 500 (T03)</t>
+          <t>750 (T02) + 500 (T03) + 500 (T01)</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>750 (T01) + 750 (T03)</t>
+          <t>750 (T03) + 750 (T01)</t>
         </is>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>500 (T01) + 500 (T02) + 250 (T03)</t>
+          <t>500 (T02) + 500 (T01) + 250 (T03)</t>
         </is>
       </c>
     </row>
@@ -7793,8 +7793,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>250 (T01) + 250 (T02) + 125 (T03)</t>
+          <t>250 (T02) + 250 (T01) + 125 (T03)</t>
         </is>
       </c>
     </row>
@@ -8487,8 +8487,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>125 (T01) + 125 (T03) + 65 (T02)</t>
+          <t>125 (T03) + 125 (T01) + 65 (T02)</t>
         </is>
       </c>
     </row>
@@ -9378,8 +9378,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10240,8 +10240,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
